--- a/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/merged.xlsx
+++ b/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/143B-2xGOT-KO_characterization/143B-2xGOT-KO_Rotenone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D243A0-2B2F-CD43-8B19-2FC113285470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781E2E6-6B73-C045-B0F8-199847B8279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2720" windowWidth="28560" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2720" windowWidth="28560" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
   <si>
     <t>Sample ID</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>Correcting this in sheet 2</t>
+  </si>
+  <si>
+    <t>Vec</t>
+  </si>
+  <si>
+    <t>Rot</t>
+  </si>
+  <si>
+    <t>Cell size</t>
+  </si>
+  <si>
+    <t>Prlfr vs size</t>
   </si>
 </sst>
 </file>
@@ -320,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -333,6 +345,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +361,3219 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$79:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$79:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1790578542677776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9603834436798766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74892993271004804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22245720254921364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2202179651727075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.53817555577179976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8343-DE45-9199-0310EE385897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pyr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$79:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$79:$J$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3125178880279753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2194568671033912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0805473576246194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5691397313625205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4342650036524438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.3372427169871279E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8343-DE45-9199-0310EE385897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1603872800"/>
+        <c:axId val="1604227088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1603872800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604227088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1604227088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603872800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$96:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$96:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3769.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3976.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4065.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5114.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5243.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5579.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F19-744B-85AE-1A7A3C430D94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pyr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$96:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$96:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3924.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3813.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4101.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3942.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F19-744B-85AE-1A7A3C430D94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1573501552"/>
+        <c:axId val="1617698064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1573501552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617698064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1617698064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573501552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$111:$H$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1790578542677776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9603834436798766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74892993271004804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22245720254921364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2202179651727075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.53817555577179976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3125178880279753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2194568671033912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0805473576246194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5691397313625205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4342650036524438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.3372427169871279E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$111:$I$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3769.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3976.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4065.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5114.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5243.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5579.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-428C-494B-AFA1-7FF253C0FDF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pyr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$111:$H$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1790578542677776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9603834436798766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74892993271004804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22245720254921364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2202179651727075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.53817555577179976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3125178880279753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2194568671033912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0805473576246194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5691397313625205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4342650036524438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.3372427169871279E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$111:$J$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>3924.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3813.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4101.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3942.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-428C-494B-AFA1-7FF253C0FDF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1636974000"/>
+        <c:axId val="1612726400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1636974000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612726400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1612726400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5700"/>
+          <c:min val="3500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636974000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD77AC3-15DE-675B-E399-4FB012BC1309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47851B44-5CA4-BC6D-20B2-945C8526EBA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A1EF72-E2F7-7CCE-4D7A-596EE613625D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,10 +3897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
+      <selection activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1117,6 +4343,10 @@
       <c r="A16" t="s">
         <v>59</v>
       </c>
+      <c r="K16">
+        <f>AVERAGE(K14:K15)</f>
+        <v>3769.5</v>
+      </c>
       <c r="Q16" s="7">
         <f>AVERAGE(Q14:Q15)</f>
         <v>1.1790578542677776</v>
@@ -1238,6 +4468,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <f>AVERAGE(K19:K20)</f>
+        <v>3976.5</v>
+      </c>
       <c r="Q21" s="7">
         <f>AVERAGE(Q19:Q20)</f>
         <v>0.9603834436798766</v>
@@ -1356,6 +4590,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <f>AVERAGE(K24:K25)</f>
+        <v>4065.5</v>
+      </c>
       <c r="Q26" s="7">
         <f>AVERAGE(Q24:Q25)</f>
         <v>0.74892993271004804</v>
@@ -1474,6 +4712,10 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <f>AVERAGE(K29:K30)</f>
+        <v>3942.5</v>
+      </c>
       <c r="Q31" s="7">
         <f>AVERAGE(Q29:Q30)</f>
         <v>0.5691397313625205</v>
@@ -1592,6 +4834,10 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <f>AVERAGE(K34:K35)</f>
+        <v>4052</v>
+      </c>
       <c r="Q36" s="7">
         <f>AVERAGE(Q34:Q35)</f>
         <v>0.4342650036524438</v>
@@ -1710,6 +4956,10 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <f>AVERAGE(K39:K40)</f>
+        <v>5058</v>
+      </c>
       <c r="Q41" s="7">
         <f>AVERAGE(Q39:Q40)</f>
         <v>-6.3372427169871279E-2</v>
@@ -1828,6 +5078,10 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <f>AVERAGE(K45:K46)</f>
+        <v>3924.5</v>
+      </c>
       <c r="Q47" s="7">
         <f>AVERAGE(Q45:Q46)</f>
         <v>1.3125178880279753</v>
@@ -1946,6 +5200,10 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <f>AVERAGE(K50:K51)</f>
+        <v>3813.5</v>
+      </c>
       <c r="Q52" s="7">
         <f>AVERAGE(Q50:Q51)</f>
         <v>1.2194568671033912</v>
@@ -2064,6 +5322,10 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <f>AVERAGE(K55:K56)</f>
+        <v>4101.5</v>
+      </c>
       <c r="Q57" s="7">
         <f>AVERAGE(Q55:Q56)</f>
         <v>1.0805473576246194</v>
@@ -2182,6 +5444,10 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <f>AVERAGE(K60:K61)</f>
+        <v>5114.5</v>
+      </c>
       <c r="Q62" s="7">
         <f>AVERAGE(Q60:Q61)</f>
         <v>0.22245720254921364</v>
@@ -2300,6 +5566,10 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <f>AVERAGE(K65:K66)</f>
+        <v>5243.5</v>
+      </c>
       <c r="Q67" s="7">
         <f>AVERAGE(Q65:Q66)</f>
         <v>8.2202179651727075E-2</v>
@@ -2418,6 +5688,10 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <f>AVERAGE(K70:K71)</f>
+        <v>5579.5</v>
+      </c>
       <c r="Q72" s="7">
         <f>AVERAGE(Q70:Q71)</f>
         <v>-0.53817555577179976</v>
@@ -2438,9 +5712,284 @@
       <c r="A76" t="s">
         <v>69</v>
       </c>
+      <c r="I76" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78" t="s">
+        <v>70</v>
+      </c>
+      <c r="J78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1.1790578542677776</v>
+      </c>
+      <c r="J79">
+        <v>1.3125178880279753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>12.5</v>
+      </c>
+      <c r="I80">
+        <v>0.9603834436798766</v>
+      </c>
+      <c r="J80">
+        <v>1.2194568671033912</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>25</v>
+      </c>
+      <c r="I81">
+        <v>0.74892993271004804</v>
+      </c>
+      <c r="J81">
+        <v>1.0805473576246194</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>50</v>
+      </c>
+      <c r="I82">
+        <v>0.22245720254921364</v>
+      </c>
+      <c r="J82">
+        <v>0.5691397313625205</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>8.2202179651727075E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.4342650036524438</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>200</v>
+      </c>
+      <c r="I84">
+        <v>-0.53817555577179976</v>
+      </c>
+      <c r="J84">
+        <v>-6.3372427169871279E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I93" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>3769.5</v>
+      </c>
+      <c r="J96">
+        <v>3924.5</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>12.5</v>
+      </c>
+      <c r="I97">
+        <v>3976.5</v>
+      </c>
+      <c r="J97">
+        <v>3813.5</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>25</v>
+      </c>
+      <c r="I98">
+        <v>4065.5</v>
+      </c>
+      <c r="J98">
+        <v>4101.5</v>
+      </c>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>50</v>
+      </c>
+      <c r="I99">
+        <v>5114.5</v>
+      </c>
+      <c r="J99">
+        <v>3942.5</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>5243.5</v>
+      </c>
+      <c r="J100">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>200</v>
+      </c>
+      <c r="I101">
+        <v>5579.5</v>
+      </c>
+      <c r="J101">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="108" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H108" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>63</v>
+      </c>
+      <c r="I110" t="s">
+        <v>70</v>
+      </c>
+      <c r="J110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>1.1790578542677776</v>
+      </c>
+      <c r="I111">
+        <v>3769.5</v>
+      </c>
+    </row>
+    <row r="112" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>0.9603834436798766</v>
+      </c>
+      <c r="I112">
+        <v>3976.5</v>
+      </c>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>0.74892993271004804</v>
+      </c>
+      <c r="I113">
+        <v>4065.5</v>
+      </c>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>0.22245720254921364</v>
+      </c>
+      <c r="I114">
+        <v>5114.5</v>
+      </c>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>8.2202179651727075E-2</v>
+      </c>
+      <c r="I115">
+        <v>5243.5</v>
+      </c>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>-0.53817555577179976</v>
+      </c>
+      <c r="I116">
+        <v>5579.5</v>
+      </c>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>1.3125178880279753</v>
+      </c>
+      <c r="J117">
+        <v>3924.5</v>
+      </c>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>1.2194568671033912</v>
+      </c>
+      <c r="J118">
+        <v>3813.5</v>
+      </c>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>1.0805473576246194</v>
+      </c>
+      <c r="J119">
+        <v>4101.5</v>
+      </c>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>0.5691397313625205</v>
+      </c>
+      <c r="J120">
+        <v>3942.5</v>
+      </c>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>0.4342650036524438</v>
+      </c>
+      <c r="J121">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>-6.3372427169871279E-2</v>
+      </c>
+      <c r="J122">
+        <v>5058</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2448,7 +5997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5AEEE9-CD28-BC45-B5D7-A84488394339}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/merged.xlsx
+++ b/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/merged.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781E2E6-6B73-C045-B0F8-199847B8279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D78C8-DB1D-FA43-82FD-E2DD4908B3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2720" windowWidth="28560" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2720" windowWidth="28560" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t>Sample ID</t>
   </si>
@@ -254,6 +255,9 @@
   </si>
   <si>
     <t>Prlfr vs size</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -340,7 +344,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -843,37 +847,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -938,9 +912,6 @@
                 <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -964,9 +935,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5243.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5579.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,9 +1005,6 @@
                 <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1063,9 +1028,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4052</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,9 +1364,6 @@
                 <c:pt idx="4">
                   <c:v>8.2202179651727075E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.53817555577179976</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>1.3125178880279753</c:v>
                 </c:pt>
@@ -1419,9 +1378,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4342650036524438</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-6.3372427169871279E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,9 +1402,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5243.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5579.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,9 +1470,6 @@
                 <c:pt idx="4">
                   <c:v>8.2202179651727075E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.53817555577179976</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>1.3125178880279753</c:v>
                 </c:pt>
@@ -1534,9 +1484,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4342650036524438</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-6.3372427169871279E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,9 +1508,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4052</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3577,9 +3521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3617,9 +3561,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3652,26 +3596,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3704,26 +3631,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3897,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
-      <selection activeCell="W117" sqref="W117"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5864,17 +5774,6 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="101" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H101">
-        <v>200</v>
-      </c>
-      <c r="I101">
-        <v>5579.5</v>
-      </c>
-      <c r="J101">
-        <v>5058</v>
-      </c>
-    </row>
     <row r="108" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H108" s="8" t="s">
         <v>73</v>
@@ -5931,14 +5830,6 @@
         <v>5243.5</v>
       </c>
     </row>
-    <row r="116" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H116">
-        <v>-0.53817555577179976</v>
-      </c>
-      <c r="I116">
-        <v>5579.5</v>
-      </c>
-    </row>
     <row r="117" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H117">
         <v>1.3125178880279753</v>
@@ -5977,14 +5868,6 @@
       </c>
       <c r="J121">
         <v>4052</v>
-      </c>
-    </row>
-    <row r="122" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H122">
-        <v>-6.3372427169871279E-2</v>
-      </c>
-      <c r="J122">
-        <v>5058</v>
       </c>
     </row>
   </sheetData>
@@ -5995,15 +5878,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5AEEE9-CD28-BC45-B5D7-A84488394339}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -6013,8 +5896,11 @@
       <c r="C1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6024,8 +5910,11 @@
       <c r="C2">
         <v>1.1678998889279368</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6035,8 +5924,11 @@
       <c r="C3">
         <v>1.1902158196076185</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -6046,8 +5938,11 @@
       <c r="C4">
         <v>0.96398295198372486</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -6057,8 +5952,11 @@
       <c r="C5">
         <v>0.95678393537602824</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -6068,8 +5966,11 @@
       <c r="C6">
         <v>0.80713758225984955</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -6079,8 +5980,11 @@
       <c r="C7">
         <v>0.69072228316024664</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6090,8 +5994,11 @@
       <c r="C8">
         <v>0.57644295919210631</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -6101,8 +6008,11 @@
       <c r="C9">
         <v>0.56183650353293468</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -6112,8 +6022,11 @@
       <c r="C10">
         <v>0.4113990816091474</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -6123,8 +6036,11 @@
       <c r="C11">
         <v>0.45713092569574015</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -6134,8 +6050,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -6145,8 +6064,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -6156,8 +6078,11 @@
       <c r="C14">
         <v>1.3065895668299889</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -6167,8 +6092,11 @@
       <c r="C15">
         <v>1.3184462092259617</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -6178,8 +6106,11 @@
       <c r="C16">
         <v>1.2097286232453124</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -6189,8 +6120,11 @@
       <c r="C17">
         <v>1.22918511096147</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -6200,8 +6134,11 @@
       <c r="C18">
         <v>1.0736736287784099</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -6211,8 +6148,11 @@
       <c r="C19">
         <v>1.0874210864708291</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -6222,8 +6162,11 @@
       <c r="C20">
         <v>0.28862481529741707</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -6233,8 +6176,11 @@
       <c r="C21">
         <v>0.15628958980101018</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -6244,8 +6190,11 @@
       <c r="C22">
         <v>0.10991233170779585</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -6255,8 +6204,11 @@
       <c r="C23">
         <v>5.4492027595658299E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -6266,8 +6218,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -6276,10 +6231,220 @@
       </c>
       <c r="C25">
         <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5994</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314E70AF-6A18-6645-A2E2-3491B32CF43F}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>3794</v>
+      </c>
+      <c r="B1">
+        <v>1.1678998889279368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3745</v>
+      </c>
+      <c r="B2">
+        <v>1.1902158196076185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4011</v>
+      </c>
+      <c r="B3">
+        <v>0.96398295198372486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3942</v>
+      </c>
+      <c r="B4">
+        <v>0.95678393537602824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4080</v>
+      </c>
+      <c r="B5">
+        <v>0.80713758225984955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4051</v>
+      </c>
+      <c r="B6">
+        <v>0.69072228316024664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3923</v>
+      </c>
+      <c r="B7">
+        <v>0.57644295919210631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3962</v>
+      </c>
+      <c r="B8">
+        <v>0.56183650353293468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4184</v>
+      </c>
+      <c r="B9">
+        <v>0.4113990816091474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3920</v>
+      </c>
+      <c r="B10">
+        <v>0.45713092569574015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5430</v>
+      </c>
+      <c r="B11">
+        <v>-8.6549221650074101E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4686</v>
+      </c>
+      <c r="B12">
+        <v>-4.0195632689668463E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3840</v>
+      </c>
+      <c r="B13">
+        <v>1.3065895668299889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4009</v>
+      </c>
+      <c r="B14">
+        <v>1.3184462092259617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3773</v>
+      </c>
+      <c r="B15">
+        <v>1.2097286232453124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3854</v>
+      </c>
+      <c r="B16">
+        <v>1.22918511096147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4074</v>
+      </c>
+      <c r="B17">
+        <v>1.0736736287784099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4129</v>
+      </c>
+      <c r="B18">
+        <v>1.0874210864708291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4973</v>
+      </c>
+      <c r="B19">
+        <v>0.28862481529741707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5256</v>
+      </c>
+      <c r="B20">
+        <v>0.15628958980101018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5200</v>
+      </c>
+      <c r="B21">
+        <v>0.10991233170779585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5287</v>
+      </c>
+      <c r="B22">
+        <v>5.4492027595658299E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5165</v>
+      </c>
+      <c r="B23">
+        <v>-0.56567456065574562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5994</v>
+      </c>
+      <c r="B24">
+        <v>-0.51067655088785391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>